--- a/input11.xlsx
+++ b/input11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>link</t>
   </si>
@@ -57,9 +57,6 @@
     <t>http://career.cmbchina.com/Campus/Campus.aspx</t>
   </si>
   <si>
-    <t>cmbchina</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -79,6 +76,165 @@
   </si>
   <si>
     <t>Position.aspx.id</t>
+  </si>
+  <si>
+    <t>http://career.cmbchina.com/Social/Default.aspx</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[1]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[3]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[5]/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="rightdiv"]/div[1]/div[2]/p[6]/text()</t>
+  </si>
+  <si>
+    <t>http://job.ccb.com/ccbjob/cn/job/index.jsp</t>
+  </si>
+  <si>
+    <t>//*[@id="title"]/strong/text()</t>
+  </si>
+  <si>
+    <t>//*[@id="data"]/table/tbody/tr[2]/td/p[5]/font/text()</t>
+  </si>
+  <si>
+    <t>branch_notice_list2</t>
+  </si>
+  <si>
+    <t>notice.info.</t>
+  </si>
+  <si>
+    <t>http://egfbank.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[1]/li[4]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/div[1]/p[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[4]/text()</t>
+  </si>
+  <si>
+    <t>social.p</t>
+  </si>
+  <si>
+    <t>^.zpdetail</t>
+  </si>
+  <si>
+    <t>http://egfbank.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>campus.p</t>
+  </si>
+  <si>
+    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/campus.view</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[2]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[4]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/div[2]/table/tbody/tr[8]/td[2]/text()</t>
+  </si>
+  <si>
+    <t>^.theme1.career</t>
+  </si>
+  <si>
+    <t>http://job.efunds.com.cn/portal/careerrecruitment/list/social.view</t>
+  </si>
+  <si>
+    <t>http://guosen.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>http://guosen.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>http://thfund.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[1]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[3]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div/div[1]/div/div/div/div[2]/ul[2]/li[2]/text()</t>
+  </si>
+  <si>
+    <t>social.r</t>
+  </si>
+  <si>
+    <t>http://thfund.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>campus.r</t>
+  </si>
+  <si>
+    <t>http://career.gjzq.com.cn/social?r=&amp;p=&amp;c=-1&amp;d=&amp;k=#jlt</t>
+  </si>
+  <si>
+    <t>http://career.gjzq.com.cn/Campus</t>
+  </si>
+  <si>
+    <t>http://bhzq.zhiye.com/Social</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/h2/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[2]/td[8]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[1]/td[6]/span/text()</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[2]/div/div[2]/div[2]/div[2]/div/div/div[1]/table/tbody/tr[2]/td[4]/span/text()</t>
+  </si>
+  <si>
+    <t>http://bhzq.zhiye.com/Campus</t>
+  </si>
+  <si>
+    <t>中国招商银行</t>
+  </si>
+  <si>
+    <t>中国建设银行</t>
+  </si>
+  <si>
+    <t>恒丰银行</t>
+  </si>
+  <si>
+    <t>易方达基金管理有限公司</t>
+  </si>
+  <si>
+    <t>国信证券</t>
+  </si>
+  <si>
+    <t>天弘基金</t>
+  </si>
+  <si>
+    <t>国金证券</t>
+  </si>
+  <si>
+    <t>渤海证券</t>
   </si>
 </sst>
 </file>
@@ -490,7 +646,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,72 +688,429 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="135.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6" location="jlt"/>
+    <hyperlink ref="A14" r:id="rId7"/>
+    <hyperlink ref="A15" r:id="rId8"/>
+    <hyperlink ref="A16" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>